--- a/excel-basics/playground_data.xlsx
+++ b/excel-basics/playground_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haroonpopal/Google_Drive/COG/cog_summer_workshops_2021/excel-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5312C798-C619-2A4E-87F3-E1CA7C84DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80B59F-A89F-A44D-B0C2-97A1045C6597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1480" windowWidth="25140" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="3360" windowWidth="24540" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unrestricted_hspopal_9_9_2019_2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unrestricted_hspopal_9_9_2019_2!$A$1:$CH$100</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -767,10 +770,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -816,7 +820,118 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1128,14 +1243,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" x14ac:dyDescent="0.2">
@@ -1235,7 +1351,7 @@
       <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AH1" t="s">
@@ -1495,6 +1611,7 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2"/>
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1853,7 +1970,7 @@
       <c r="AF4">
         <v>3</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="3">
         <v>85.424999999999997</v>
       </c>
       <c r="AH4">
@@ -3762,6 +3879,7 @@
       <c r="AF12">
         <v>3</v>
       </c>
+      <c r="AG12"/>
     </row>
     <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3860,7 +3978,7 @@
       <c r="AF13">
         <v>3</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="3">
         <v>84.828999999999994</v>
       </c>
       <c r="AH13">
@@ -4640,7 +4758,7 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="3">
         <v>71.962000000000003</v>
       </c>
       <c r="AH16">
@@ -5677,7 +5795,7 @@
       <c r="AF20">
         <v>1</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="3">
         <v>90.429000000000002</v>
       </c>
       <c r="AH20">
@@ -6717,7 +6835,7 @@
       <c r="AF24">
         <v>3</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="3">
         <v>91.679000000000002</v>
       </c>
       <c r="AH24">
@@ -7601,6 +7719,7 @@
       <c r="AF28">
         <v>3</v>
       </c>
+      <c r="AG28"/>
     </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -7699,7 +7818,7 @@
       <c r="AF29">
         <v>1</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="3">
         <v>89.037999999999997</v>
       </c>
       <c r="AH29">
@@ -8219,7 +8338,7 @@
       <c r="AF31">
         <v>3</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="3">
         <v>94</v>
       </c>
       <c r="AH31">
@@ -8999,7 +9118,7 @@
       <c r="AF34">
         <v>3</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="3">
         <v>98.346000000000004</v>
       </c>
       <c r="AH34">
@@ -9259,7 +9378,7 @@
       <c r="AF35">
         <v>3</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="3">
         <v>93.341999999999999</v>
       </c>
       <c r="AH35">
@@ -9519,7 +9638,7 @@
       <c r="AF36">
         <v>3</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" s="3">
         <v>91.771000000000001</v>
       </c>
       <c r="AH36">
@@ -9779,6 +9898,7 @@
       <c r="AF37">
         <v>0</v>
       </c>
+      <c r="AG37"/>
     </row>
     <row r="38" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -10137,7 +10257,7 @@
       <c r="AF39">
         <v>1</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="3">
         <v>97</v>
       </c>
       <c r="AH39">
@@ -10917,6 +11037,7 @@
       <c r="AF42">
         <v>3</v>
       </c>
+      <c r="AG42"/>
     </row>
     <row r="43" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -11015,7 +11136,7 @@
       <c r="AF43">
         <v>3</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="3">
         <v>78.542000000000002</v>
       </c>
       <c r="AH43">
@@ -11275,7 +11396,7 @@
       <c r="AF44">
         <v>0</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="3">
         <v>95.066999999999993</v>
       </c>
       <c r="AH44">
@@ -11795,6 +11916,7 @@
       <c r="AF46">
         <v>3</v>
       </c>
+      <c r="AG46"/>
     </row>
     <row r="47" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -11893,7 +12015,7 @@
       <c r="AF47">
         <v>0</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="3">
         <v>65.679000000000002</v>
       </c>
       <c r="AH47">
@@ -12407,7 +12529,7 @@
       <c r="AF49">
         <v>1</v>
       </c>
-      <c r="AG49">
+      <c r="AG49" s="3">
         <v>87.066999999999993</v>
       </c>
       <c r="AH49">
@@ -12927,7 +13049,7 @@
       <c r="AF51">
         <v>3</v>
       </c>
-      <c r="AG51">
+      <c r="AG51" s="3">
         <v>73.667000000000002</v>
       </c>
       <c r="AH51">
@@ -14469,7 +14591,7 @@
       <c r="AF57">
         <v>3</v>
       </c>
-      <c r="AG57">
+      <c r="AG57" s="3">
         <v>89.45</v>
       </c>
       <c r="AH57">
@@ -15249,7 +15371,7 @@
       <c r="AF60">
         <v>3</v>
       </c>
-      <c r="AG60">
+      <c r="AG60" s="3">
         <v>92.262</v>
       </c>
       <c r="AH60">
@@ -15509,7 +15631,7 @@
       <c r="AF61">
         <v>3</v>
       </c>
-      <c r="AG61">
+      <c r="AG61" s="3">
         <v>93.783000000000001</v>
       </c>
       <c r="AH61">
@@ -16549,7 +16671,7 @@
       <c r="AF65">
         <v>0</v>
       </c>
-      <c r="AG65">
+      <c r="AG65" s="3">
         <v>87.778999999999996</v>
       </c>
       <c r="AH65">
@@ -17329,7 +17451,7 @@
       <c r="AF68">
         <v>3</v>
       </c>
-      <c r="AG68">
+      <c r="AG68" s="3">
         <v>75.679000000000002</v>
       </c>
       <c r="AH68">
@@ -17589,7 +17711,7 @@
       <c r="AF69">
         <v>3</v>
       </c>
-      <c r="AG69">
+      <c r="AG69" s="3">
         <v>88.245999999999995</v>
       </c>
       <c r="AH69">
@@ -18109,7 +18231,7 @@
       <c r="AF71">
         <v>0</v>
       </c>
-      <c r="AG71">
+      <c r="AG71" s="3">
         <v>94.691999999999993</v>
       </c>
       <c r="AH71">
@@ -18889,7 +19011,7 @@
       <c r="AF74">
         <v>3</v>
       </c>
-      <c r="AG74">
+      <c r="AG74" s="3">
         <v>90.6</v>
       </c>
       <c r="AH74">
@@ -19149,7 +19271,7 @@
       <c r="AF75">
         <v>1</v>
       </c>
-      <c r="AG75">
+      <c r="AG75" s="3">
         <v>94.820999999999998</v>
       </c>
       <c r="AH75">
@@ -19929,7 +20051,7 @@
       <c r="AF78">
         <v>3</v>
       </c>
-      <c r="AG78">
+      <c r="AG78" s="3">
         <v>94.629000000000005</v>
       </c>
       <c r="AH78">
@@ -21489,7 +21611,7 @@
       <c r="AF84">
         <v>3</v>
       </c>
-      <c r="AG84">
+      <c r="AG84" s="3">
         <v>89.578999999999994</v>
       </c>
       <c r="AH84">
@@ -22266,7 +22388,7 @@
       <c r="AF87">
         <v>0</v>
       </c>
-      <c r="AG87">
+      <c r="AG87" s="3">
         <v>74.191999999999993</v>
       </c>
       <c r="AH87">
@@ -22786,6 +22908,7 @@
       <c r="AF89">
         <v>1</v>
       </c>
+      <c r="AG89"/>
     </row>
     <row r="90" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -23144,6 +23267,7 @@
       <c r="AF91">
         <v>3</v>
       </c>
+      <c r="AG91"/>
     </row>
     <row r="92" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -24016,7 +24140,7 @@
       <c r="AF95">
         <v>1</v>
       </c>
-      <c r="AG95">
+      <c r="AG95" s="3">
         <v>89.367000000000004</v>
       </c>
       <c r="AH95">
@@ -24276,7 +24400,7 @@
       <c r="AF96">
         <v>3</v>
       </c>
-      <c r="AG96">
+      <c r="AG96" s="3">
         <v>94</v>
       </c>
       <c r="AH96">
@@ -24536,7 +24660,7 @@
       <c r="AF97">
         <v>0</v>
       </c>
-      <c r="AG97">
+      <c r="AG97" s="3">
         <v>70.257999999999996</v>
       </c>
       <c r="AH97">
@@ -25056,7 +25180,7 @@
       <c r="AF99">
         <v>3</v>
       </c>
-      <c r="AG99">
+      <c r="AG99" s="3">
         <v>91.013000000000005</v>
       </c>
       <c r="AH99">
@@ -25316,7 +25440,7 @@
       <c r="AF100">
         <v>3</v>
       </c>
-      <c r="AG100">
+      <c r="AG100" s="3">
         <v>89.4</v>
       </c>
       <c r="AH100">
